--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF66CC6-0715-48FA-824F-B485698B7E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B793E367-AB9C-4EA2-92A8-698EE5A0731B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -439,6 +439,18 @@
 1:需審查/確認
 2:為凍結名單/未確定名單</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理時間</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新動作之日期時間</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -629,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,6 +751,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1370,149 +1385,151 @@
         <v>9</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>51</v>
+        <v>98</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="25">
-        <v>8</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="356.4">
+        <v>32</v>
+      </c>
+      <c r="E18" s="16">
+        <v>6</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="22">
         <v>10</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>82</v>
+      <c r="B19" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="22">
-        <v>1</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="48.6">
+        <v>51</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="25">
+        <v>8</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="356.4">
       <c r="A20" s="22">
         <v>11</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E20" s="22">
         <v>1</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="48.6">
       <c r="A21" s="22">
         <v>12</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="E21" s="22">
-        <v>8</v>
-      </c>
-      <c r="F21" s="16">
-        <v>2</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="32.4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="22">
         <v>13</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>69</v>
+      <c r="B22" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="E22" s="22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="F22" s="16">
+        <v>2</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="32.4">
       <c r="A23" s="22">
         <v>14</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="22">
-        <v>6</v>
-      </c>
-      <c r="G23" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="22">
         <v>15</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>44</v>
+      <c r="B24" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="25">
-        <v>8</v>
-      </c>
-      <c r="G24" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="22">
+        <v>6</v>
+      </c>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="22">
         <v>16</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>59</v>
@@ -1527,10 +1544,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>59</v>
@@ -1540,59 +1557,59 @@
       </c>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:7" ht="226.8">
+    <row r="27" spans="1:7">
       <c r="A27" s="22">
         <v>18</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="22">
-        <v>2</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>90</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="25">
+        <v>8</v>
+      </c>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" ht="226.8">
       <c r="A28" s="22">
         <v>19</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="25">
-        <v>100</v>
-      </c>
-      <c r="G28" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="E28" s="22">
+        <v>2</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="22">
         <v>20</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="22">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="E29" s="25">
+        <v>100</v>
       </c>
       <c r="G29" s="19"/>
     </row>
@@ -1601,16 +1618,16 @@
         <v>21</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="25">
-        <v>8</v>
+        <v>78</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="22">
+        <v>10</v>
       </c>
       <c r="G30" s="19"/>
     </row>
@@ -1619,73 +1636,75 @@
         <v>22</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="22">
-        <v>1</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="64.8">
+        <v>62</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="25">
+        <v>8</v>
+      </c>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="22">
         <v>23</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E32" s="22">
         <v>1</v>
       </c>
-      <c r="G32" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="64.8">
       <c r="A33" s="22">
         <v>24</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="25">
-        <v>6</v>
-      </c>
-      <c r="G33" s="19"/>
+        <v>65</v>
+      </c>
+      <c r="E33" s="22">
+        <v>1</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="22">
         <v>25</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="25">
+        <v>6</v>
+      </c>
       <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7">
@@ -1693,17 +1712,15 @@
         <v>26</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="25">
-        <v>6</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="25"/>
       <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7">
@@ -1711,16 +1728,34 @@
         <v>27</v>
       </c>
       <c r="B36" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="25">
+        <v>6</v>
+      </c>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="16">
+        <v>28</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C37" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D37" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="G36" s="19"/>
+      <c r="E37" s="25"/>
+      <c r="G37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B793E367-AB9C-4EA2-92A8-698EE5A0731B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436031B7-4044-4086-805C-2C4B7E9D7ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -741,6 +741,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -751,9 +754,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:G18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1113,10 +1113,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="3" t="s">
         <v>85</v>
       </c>
@@ -1128,8 +1128,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="8" t="s">
         <v>76</v>
       </c>
@@ -1141,10 +1141,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="12" t="s">
         <v>89</v>
       </c>
@@ -1156,10 +1156,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1167,30 +1167,30 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1198,10 +1198,10 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="21"/>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
@@ -1396,7 +1396,7 @@
       <c r="E18" s="16">
         <v>6</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22" s="16">
         <v>2</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436031B7-4044-4086-805C-2C4B7E9D7ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FAC8EA-17CD-4923-B5C2-3871DB36E9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -451,6 +451,14 @@
   <si>
     <t>最新動作之日期時間</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -641,7 +649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,10 +665,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -672,9 +680,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -687,9 +692,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,9 +699,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1097,26 +1096,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="3" t="s">
         <v>85</v>
       </c>
@@ -1128,87 +1127,87 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="34"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="32"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
+      <c r="B8" s="32"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1227,535 +1226,533 @@
       <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1">
-      <c r="A10" s="27">
+    <row r="10" spans="1:7">
+      <c r="A10" s="24">
         <v>1</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="1:7" s="15" customFormat="1">
-      <c r="A11" s="22">
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="19">
         <v>2</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <v>7</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" s="15" customFormat="1">
-      <c r="A12" s="22">
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="19">
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="22">
         <v>3</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="19"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="22">
+      <c r="A13" s="19">
         <v>4</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="22">
         <v>8</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="22">
+      <c r="A14" s="19">
         <v>5</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="22">
         <v>3</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22">
+      <c r="A15" s="19">
         <v>6</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>14</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" ht="64.8">
-      <c r="A16" s="22">
+      <c r="A16" s="19">
         <v>7</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>1</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="22">
+      <c r="A17" s="19">
         <v>8</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="22">
         <v>8</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="22">
+      <c r="A18" s="19">
         <v>9</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>6</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="30" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="22">
+      <c r="A19" s="19">
         <v>10</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="22">
         <v>8</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="356.4">
-      <c r="A20" s="22">
+      <c r="A20" s="19">
         <v>11</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="19">
         <v>1</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="48.6">
-      <c r="A21" s="22">
+      <c r="A21" s="19">
         <v>12</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <v>1</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="22">
+      <c r="A22" s="19">
         <v>13</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="19">
         <v>10</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="14">
         <v>2</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32.4">
-      <c r="A23" s="22">
+      <c r="A23" s="19">
         <v>14</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="19">
         <v>1</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="22">
+      <c r="A24" s="19">
         <v>15</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="19">
         <v>6</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="22">
+      <c r="A25" s="19">
         <v>16</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="22">
         <v>8</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="22">
+      <c r="A26" s="19">
         <v>17</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="22">
         <v>8</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="22">
+      <c r="A27" s="19">
         <v>18</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="22">
         <v>8</v>
       </c>
-      <c r="G27" s="19"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" ht="226.8">
-      <c r="A28" s="22">
+      <c r="A28" s="19">
         <v>19</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="19">
         <v>2</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="22">
+      <c r="A29" s="19">
         <v>20</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="22">
         <v>100</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="22">
+      <c r="A30" s="19">
         <v>21</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="19">
         <v>10</v>
       </c>
-      <c r="G30" s="19"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="22">
+      <c r="A31" s="19">
         <v>22</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="22">
         <v>8</v>
       </c>
-      <c r="G31" s="19"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="22">
+      <c r="A32" s="19">
         <v>23</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="19">
         <v>1</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="64.8">
-      <c r="A33" s="22">
+      <c r="A33" s="19">
         <v>24</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="19">
         <v>1</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="22">
+      <c r="A34" s="19">
         <v>25</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="22">
         <v>6</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="22">
+      <c r="A35" s="19">
         <v>26</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="G35" s="19"/>
+      <c r="E35" s="22"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="22">
+      <c r="A36" s="19">
         <v>27</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="22">
         <v>6</v>
       </c>
-      <c r="G36" s="19"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="16">
+      <c r="A37" s="14">
         <v>28</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="G37" s="19"/>
+      <c r="E37" s="22"/>
+      <c r="G37" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1776,11 +1773,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1813,6 +1810,17 @@
         <v>81</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FAC8EA-17CD-4923-B5C2-3871DB36E9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C034604-B6C5-416F-A1A8-53385AEA2F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -382,8 +382,62 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.AuthStatus
-空白:未授權
+    <t>CdCode.AchAuthCode
+A:紙本新增
+O:舊檔轉換</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.RelationCode
+00:本人
+01:夫
+02:妻
+03:父
+04:母
+05:子
+06:女
+07:兄
+08:弟
+09:姊
+10:妹
+11:姪子
+99:其他</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.Sex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AmlCheckItem
+0:非可疑名單/已完成名單確認
+1:需審查/確認
+2:為凍結名單/未確定名單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理時間</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新動作之日期時間</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白:未授權
+CdCode.AuthStatus
 0:成功授權/取消授權
 1:印鑑不符
 2:無此帳號
@@ -405,60 +459,6 @@
 I:該用戶已死亡
 Z:未交易或匯入失敗資料</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.AchAuthCode
-A:紙本新增
-O:舊檔轉換</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.RelationCode
-00:本人
-01:夫
-02:妻
-03:父
-04:母
-05:子
-06:女
-07:兄
-08:弟
-09:姊
-10:妹
-11:姪子
-99:其他</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.Sex</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.AmlCheckItem
-0:非可疑名單/已完成名單確認
-1:需審查/確認
-2:為凍結名單/未確定名單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessTime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>處理時間</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新動作之日期時間</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>custNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1382,10 +1382,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>32</v>
@@ -1394,7 +1394,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="48.6">
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1589,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="64.8">
@@ -1683,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1775,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>81</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C034604-B6C5-416F-A1A8-53385AEA2F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D95F15-1839-4F28-B0DC-F826824A4434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>第三人出生日期</t>
-  </si>
-  <si>
-    <t>第三人性別</t>
   </si>
   <si>
     <t>AML回應碼</t>
@@ -402,10 +399,6 @@
 10:妹
 11:姪子
 99:其他</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.Sex</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -458,6 +451,27 @@
 H:已於他行授權扣款
 I:該用戶已死亡
 Z:未交易或匯入失敗資料</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳戶戶名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分證字號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三人性別
+CdCode.Sex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -774,9 +788,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -814,9 +828,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -849,26 +863,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,26 +898,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1096,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1117,10 +1097,10 @@
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1130,7 +1110,7 @@
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1145,7 +1125,7 @@
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>35</v>
@@ -1235,13 +1215,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>86</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>87</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -1252,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>21</v>
@@ -1291,7 +1271,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>59</v>
@@ -1342,10 +1322,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>31</v>
@@ -1354,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1362,10 +1342,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>59</v>
@@ -1374,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1382,10 +1362,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>32</v>
@@ -1394,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1422,10 +1402,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>52</v>
@@ -1434,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="48.6">
@@ -1454,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1477,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32.4">
@@ -1485,7 +1465,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>40</v>
@@ -1562,7 +1542,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>59</v>
@@ -1589,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1600,7 +1580,7 @@
         <v>54</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>33</v>
@@ -1608,17 +1588,19 @@
       <c r="E29" s="22">
         <v>100</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="19">
         <v>21</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>31</v>
@@ -1626,7 +1608,9 @@
       <c r="E30" s="19">
         <v>10</v>
       </c>
-      <c r="G30" s="16"/>
+      <c r="G30" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="19">
@@ -1636,7 +1620,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>59</v>
@@ -1644,9 +1628,11 @@
       <c r="E31" s="22">
         <v>8</v>
       </c>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="32.4">
       <c r="A32" s="19">
         <v>23</v>
       </c>
@@ -1654,7 +1640,7 @@
         <v>56</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>31</v>
@@ -1662,8 +1648,8 @@
       <c r="E32" s="19">
         <v>1</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>95</v>
+      <c r="G32" s="17" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="64.8">
@@ -1671,19 +1657,19 @@
         <v>24</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="E33" s="19">
         <v>1</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1691,7 +1677,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>27</v>
@@ -1801,24 +1787,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D95F15-1839-4F28-B0DC-F826824A4434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0C8D7A-B52F-4038-8D52-6DA2BC74A404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -160,10 +160,6 @@
   </si>
   <si>
     <t>AuthCreateDate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -474,12 +470,15 @@
     <t>性別</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1076,11 +1075,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.21875" style="14" bestFit="1" customWidth="1"/>
@@ -1091,26 +1090,26 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1119,13 +1118,13 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>35</v>
@@ -1134,7 +1133,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
@@ -1145,7 +1144,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1154,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
@@ -1165,7 +1164,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
@@ -1176,9 +1175,9 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="18"/>
@@ -1187,7 +1186,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1210,29 +1209,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>85</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>86</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>21</v>
@@ -1245,7 +1244,7 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>3</v>
       </c>
@@ -1263,7 +1262,7 @@
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>4</v>
       </c>
@@ -1271,61 +1270,61 @@
         <v>36</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="22">
         <v>8</v>
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="22">
         <v>3</v>
       </c>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="14">
         <v>14</v>
       </c>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="64.8">
+    <row r="16" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>7</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>31</v>
@@ -1334,38 +1333,38 @@
         <v>1</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>8</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="22">
         <v>8</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>9</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>32</v>
@@ -1374,10 +1373,10 @@
         <v>6</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>10</v>
       </c>
@@ -1385,44 +1384,44 @@
         <v>17</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="22">
         <v>8</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="356.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="356.4" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>11</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="48.6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>12</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>25</v>
@@ -1434,10 +1433,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>13</v>
       </c>
@@ -1457,18 +1456,18 @@
         <v>2</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="32.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>14</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>31</v>
@@ -1477,18 +1476,18 @@
         <v>1</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>15</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>31</v>
@@ -1498,69 +1497,69 @@
       </c>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>16</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="22">
         <v>8</v>
       </c>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>17</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="22">
         <v>8</v>
       </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>18</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="22">
         <v>8</v>
       </c>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" ht="226.8">
+    <row r="28" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>19</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>31</v>
@@ -1569,18 +1568,18 @@
         <v>2</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>20</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>33</v>
@@ -1589,18 +1588,18 @@
         <v>100</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>21</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>31</v>
@@ -1609,38 +1608,38 @@
         <v>10</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>22</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="22">
         <v>8</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="32.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>23</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>31</v>
@@ -1649,35 +1648,35 @@
         <v>1</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="64.8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>24</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="E33" s="19">
         <v>1</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>25</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>27</v>
@@ -1690,23 +1689,23 @@
       </c>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>26</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E35" s="22"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>27</v>
       </c>
@@ -1724,7 +1723,7 @@
       </c>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>28</v>
       </c>
@@ -1735,7 +1734,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E37" s="22"/>
       <c r="G37" s="16"/>
@@ -1766,7 +1765,7 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="101.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -1774,7 +1773,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1785,26 +1784,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
